--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792987.791415434</v>
+        <v>1789970.201014498</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>84.11892151122089</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>302.1297585584152</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>200.4661980682387</v>
       </c>
       <c r="U4" t="n">
-        <v>278.3206651568725</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>99.4495018699665</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>45.87553536727879</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>76.60886799452514</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>78.13981344678609</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>156.7418470016294</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>292.1380595743619</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>53.28872578639817</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>110.92720347361</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417102</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.25307783771713</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4552226741782</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750046</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>60.5413943066415</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.9575509524584</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>64.34190763938432</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="V25" t="n">
-        <v>111.865268964749</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>66.14085215535538</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>14.73664328357051</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.463373762436</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>133.7097938495623</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>40.1759062874737</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>91.94988401775053</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T46" t="n">
-        <v>115.5928581134622</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2557.151793961624</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2557.151793961624</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2557.151793961624</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2557.151793961624</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2557.151793961624</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>2557.151793961624</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y2" t="n">
-        <v>2167.012461985812</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U4" t="n">
-        <v>190.2718927217162</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2718927217162</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2419.603989249473</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2419.603989249473</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.541101905902</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.541101905902</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1715.075343644822</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.075343644822</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4653,10 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>621.3293701160914</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>621.3293701160914</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>621.3293701160914</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>621.3293701160914</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V7" t="n">
-        <v>621.3293701160914</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W7" t="n">
-        <v>621.3293701160914</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X7" t="n">
-        <v>393.339819218074</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.339819218074</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2483.795303567272</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2483.795303567272</v>
       </c>
       <c r="V8" t="n">
-        <v>2402.06014195321</v>
+        <v>2152.732416223701</v>
       </c>
       <c r="W8" t="n">
-        <v>2402.06014195321</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="X8" t="n">
-        <v>2028.59438369213</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.455051716319</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>289.7554128984184</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>289.7554128984184</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>289.7554128984184</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>616.0813039300605</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>616.0813039300605</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>388.7731165986622</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>471.4038777286581</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341669</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035279</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035279</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035279</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.921157035279</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.921157035279</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.921157035279</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.921157035279</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,25 +5273,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,25 +5300,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137079</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582206</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>880.8106280646848</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5504,49 +5504,49 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635867</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C19" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D19" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E19" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F19" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.859459491671</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281177</v>
+        <v>4520.375241843982</v>
       </c>
       <c r="U19" t="n">
-        <v>4036.945405494735</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V19" t="n">
-        <v>3782.260917288848</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W19" t="n">
-        <v>3721.107993746786</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X19" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y19" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5835,16 +5835,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.6859735286132</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C22" t="n">
-        <v>665.6859735286132</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D22" t="n">
-        <v>665.6859735286132</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E22" t="n">
-        <v>665.6859735286132</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.6859735286132</v>
+        <v>4684.78764367775</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6172,13 +6172,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V25" t="n">
         <v>1186.00103929694</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3686.322319899657</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3517.38613697175</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014291</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808405</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771444</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>4088.763363873427</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>3867.970784729897</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,34 +6452,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3569.372800808168</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3899.235428472201</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632138</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D31" t="n">
-        <v>822.148054050878</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684849</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6652,19 +6652,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6743,7 +6743,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.1830073829216</v>
+        <v>4458.413529040523</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>4289.477346112616</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>4139.36070670028</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3991.447613117887</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3844.557665619977</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3676.382343939797</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3525.964335487741</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>1484.03077229167</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W34" t="n">
-        <v>1194.613602254709</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X34" t="n">
-        <v>966.6240513566914</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Y34" t="n">
-        <v>745.8314722131613</v>
+        <v>4640.061993870762</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,16 +6935,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3926.12130983931</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="C40" t="n">
-        <v>3757.185126911404</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="D40" t="n">
-        <v>3607.068487499068</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803797</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>4347.940519017355</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>4093.256030811468</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W40" t="n">
-        <v>4093.256030811468</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X40" t="n">
-        <v>4093.256030811468</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y40" t="n">
-        <v>4093.256030811468</v>
+        <v>809.2953582963255</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,34 +7427,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>399.4500457733748</v>
+        <v>190.0957621852864</v>
       </c>
       <c r="C43" t="n">
-        <v>358.8683222506741</v>
+        <v>190.0957621852864</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>190.0957621852864</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>190.0957621852864</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>190.0957621852864</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169049</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>620.2426249169049</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X43" t="n">
-        <v>620.2426249169049</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y43" t="n">
-        <v>399.4500457733748</v>
+        <v>371.7442270155261</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T46" t="n">
-        <v>1071.160694294409</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U46" t="n">
-        <v>1071.160694294409</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V46" t="n">
-        <v>1071.160694294409</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W46" t="n">
-        <v>1071.160694294409</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>843.1711433963917</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165133</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>85.30006332127708</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231144</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>124.3400780863227</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>398.9629823660891</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5789023442202</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.358185587178</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>77.06777566241277</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.3938331833846</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>225.9816040299495</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8.463497070472869</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127105</v>
       </c>
     </row>
     <row r="23">
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="V25" t="n">
-        <v>140.272374359079</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>48.0036839568655</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>44.27839330891661</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>237.4010000402575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.36860641950133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.72416879700691</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>127.0709148111541</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>74.54368444562705</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T46" t="n">
-        <v>105.954702944927</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="F2" t="n">
         <v>488786.324672136</v>
@@ -26332,25 +26332,25 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
         <v>488786.324672136</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316035.5948545325</v>
+        <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
-        <v>273932.2843600123</v>
+        <v>273517.0698505451</v>
       </c>
       <c r="D6" t="n">
-        <v>273932.2843600125</v>
+        <v>273517.0698505452</v>
       </c>
       <c r="E6" t="n">
-        <v>-143072.5384077861</v>
+        <v>-143406.707374916</v>
       </c>
       <c r="F6" t="n">
-        <v>382087.4980691094</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="G6" t="n">
-        <v>382087.4980691097</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="H6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019804</v>
       </c>
       <c r="I6" t="n">
-        <v>382087.4980691097</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="J6" t="n">
-        <v>205664.2788765168</v>
+        <v>205330.1099093873</v>
       </c>
       <c r="K6" t="n">
-        <v>382087.4980691096</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="L6" t="n">
-        <v>382087.4980691098</v>
+        <v>381753.3291019801</v>
       </c>
       <c r="M6" t="n">
-        <v>247286.4828352727</v>
+        <v>246952.313868143</v>
       </c>
       <c r="N6" t="n">
-        <v>382087.4980691099</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="O6" t="n">
-        <v>382087.49806911</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="P6" t="n">
-        <v>382087.49806911</v>
+        <v>381753.3291019803</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,13 +26793,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>90.29679129775062</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>67.60134212005386</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>24.56890738984561</v>
       </c>
       <c r="U4" t="n">
-        <v>7.961209085105224</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>307.4265438717449</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>170.572784990379</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>70.05632398563272</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>147.5698419422511</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>59.7064733560284</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>35.61419889577303</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>93.145236860171</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>35.73798850654786</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549066</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507399</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761838</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110537</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>434.7644551367889</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382562</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>709.3873594165555</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1789970.201014498</v>
+        <v>1865499.870679303</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>164.8789012911986</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>302.1297585584152</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>200.4661980682387</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>88.01378153007221</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.4495018699665</v>
+        <v>36.27232838151379</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>143.8513897502358</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>78.13981344678609</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>397.8509874798048</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>156.7418470016294</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>53.28872578639817</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>78.02029984675499</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>192.3082080654541</v>
       </c>
       <c r="X13" t="n">
-        <v>33.3514698018592</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>48.84922009325294</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4552226741782</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750046</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>203.3807067317122</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>19.75667980149156</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.34190763938432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>174.7611531036558</v>
       </c>
       <c r="U25" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3205,7 +3207,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>66.14085215535538</v>
+        <v>101.5975477744936</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>205.4667109031714</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.7097938495623</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>281.1484359425172</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>91.94988401775053</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.4653217847137</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>237.4804158064615</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
         <v>1749.341643278937</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.304160219349</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>725.8268082199834</v>
+        <v>1562.968440970219</v>
       </c>
       <c r="C5" t="n">
-        <v>725.8268082199834</v>
+        <v>1194.005924029808</v>
       </c>
       <c r="D5" t="n">
-        <v>725.8268082199834</v>
+        <v>835.7402254230574</v>
       </c>
       <c r="E5" t="n">
-        <v>725.8268082199834</v>
+        <v>835.7402254230574</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.426648284105</v>
+        <v>1949.568281034341</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4655,13 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="E7" t="n">
         <v>257.3478788207</v>
@@ -4750,25 +4752,25 @@
         <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124031</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124031</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124031</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>405.2609724030931</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2483.795303567272</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2483.795303567272</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2152.732416223701</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1799.963760953587</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1426.498002692507</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.7554128984184</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="C10" t="n">
-        <v>289.7554128984184</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="D10" t="n">
-        <v>289.7554128984184</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>178.407889936821</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>178.407889936821</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286581</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286581</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286581</v>
+        <v>325.2978374347314</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954972</v>
+        <v>1304.665555340272</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="14">
@@ -5273,52 +5275,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>223.1552313137079</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>634.0455001582206</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>880.8106280646848</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.130761344647</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635867</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300437</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3459.155393916675</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4520.375241843982</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>4231.24660305754</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>3976.562114851653</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W19" t="n">
-        <v>3687.144944814692</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X19" t="n">
-        <v>3459.155393916675</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>3459.155393916675</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.13917884751</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919603</v>
+        <v>562.0930141766539</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507268</v>
+        <v>411.9763747643182</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>264.063281181925</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>117.1733336840147</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>4749.779469576118</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>4749.779469576118</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X22" t="n">
-        <v>4749.779469576118</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y22" t="n">
-        <v>4684.78764367775</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6068,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
         <v>1198.760773441947</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.685527502827</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="26">
@@ -6221,52 +6223,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6291,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6700,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6734,13 +6736,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614725</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4458.413529040523</v>
+        <v>4347.338425602348</v>
       </c>
       <c r="C34" t="n">
-        <v>4289.477346112616</v>
+        <v>4178.402242674441</v>
       </c>
       <c r="D34" t="n">
-        <v>4139.36070670028</v>
+        <v>4028.285603262106</v>
       </c>
       <c r="E34" t="n">
-        <v>3991.447613117887</v>
+        <v>3880.372509679712</v>
       </c>
       <c r="F34" t="n">
-        <v>3844.557665619977</v>
+        <v>3880.372509679712</v>
       </c>
       <c r="G34" t="n">
-        <v>3676.382343939797</v>
+        <v>3712.197187999533</v>
       </c>
       <c r="H34" t="n">
-        <v>3525.964335487741</v>
+        <v>3561.779179547476</v>
       </c>
       <c r="I34" t="n">
         <v>3459.155393916675</v>
@@ -6880,28 +6882,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="X34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="Y34" t="n">
-        <v>4640.061993870762</v>
+        <v>4528.986890432588</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6929,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3177.42741301205</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7123,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,7 +7171,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.2953582963255</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>809.2953582963255</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>809.2953582963255</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>991.1425362135525</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963255</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X40" t="n">
-        <v>809.2953582963255</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y40" t="n">
-        <v>809.2953582963255</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7411,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>190.0957621852864</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C43" t="n">
-        <v>190.0957621852864</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D43" t="n">
-        <v>190.0957621852864</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E43" t="n">
-        <v>190.0957621852864</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F43" t="n">
-        <v>190.0957621852864</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9570010410683</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>820.5263570570736</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>592.5368061590563</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>371.7442270155261</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7630,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.836466556557</v>
+        <v>3079.144181652285</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>3409.006809316318</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>4045.444533962832</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028587</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1313.597763704656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1089.812348494162</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>800.6837097077201</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V46" t="n">
-        <v>545.9992215018333</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>85.30006332127708</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231144</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>19.14409596996961</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>360.5026862907243</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>94.21479027113693</v>
       </c>
       <c r="X13" t="n">
-        <v>192.358185587178</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>130.9827600886844</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>77.06777566241277</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.3938331833846</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>48.75693659211584</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>146.736888661886</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.2427457127105</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>46.78640795473342</v>
       </c>
       <c r="U25" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>48.0036839568655</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>44.27839330891661</v>
+        <v>8.821697689778361</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>20.24294448586573</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>12.72416879700691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>5.08891645606019</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>74.54368444562705</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>5.621317882561584</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>14.45548819888955</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.75693659211589</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="N2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26448,7 +26450,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26473,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639996</v>
+        <v>-316450.8093639998</v>
       </c>
       <c r="C6" t="n">
         <v>273517.0698505451</v>
       </c>
       <c r="D6" t="n">
-        <v>273517.0698505452</v>
+        <v>273517.069850545</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.707374916</v>
+        <v>-143406.7073749161</v>
       </c>
       <c r="F6" t="n">
         <v>381753.3291019803</v>
@@ -26537,31 +26539,31 @@
         <v>381753.3291019803</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019804</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019803</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093873</v>
+        <v>205330.1099093872</v>
       </c>
       <c r="K6" t="n">
         <v>381753.3291019802</v>
       </c>
       <c r="L6" t="n">
-        <v>381753.3291019801</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="M6" t="n">
         <v>246952.313868143</v>
       </c>
       <c r="N6" t="n">
-        <v>381753.3291019802</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="O6" t="n">
         <v>381753.3291019802</v>
       </c>
       <c r="P6" t="n">
-        <v>381753.3291019803</v>
+        <v>381753.3291019802</v>
       </c>
     </row>
   </sheetData>
@@ -26735,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26793,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>217.854940372282</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27430,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>67.60134212005386</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>24.56890738984561</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>137.6958738589649</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.4265438717449</v>
+        <v>370.6037173601977</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>68.29414919978308</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>147.5698419422511</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.93318254099023</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>59.7064733560284</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>93.145236860171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>78.15058899504015</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>127.2102422761838</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110537</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>268.4018009259939</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318325</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1865499.870679303</v>
+        <v>1858482.855787591</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.8789012911986</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>146.8714662984772</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>88.01378153007221</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>36.27232838151379</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>82.5995718321566</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>132.9342137328509</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>143.8513897502358</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>333.7356466614543</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>397.8509874798048</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>78.02029984675499</v>
+        <v>78.88684406884218</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>192.3082080654541</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002182</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.84922009325294</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.13312130516043</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.526976800221</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>203.3807067317122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.75667980149156</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>174.7611531036558</v>
+        <v>169.1477376595842</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>17.13387053928689</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>87.79869605699638</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>101.5975477744936</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>205.4667109031714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>108.6648891575308</v>
       </c>
       <c r="U40" t="n">
-        <v>281.1484359425172</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>143.2925104849745</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>120.8530343211901</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>237.4804158064615</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2548.794074555114</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2330.159407527177</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2076.397622165268</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y2" t="n">
-        <v>1915.885988017521</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1562.968440970219</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.005924029808</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>835.7402254230574</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>835.7402254230574</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>1949.568281034341</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1949.568281034341</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,25 +4664,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405.2609724030931</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>405.2609724030931</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D7" t="n">
-        <v>405.2609724030931</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>188.2199653889007</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>405.2609724030931</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>405.2609724030931</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>405.2609724030931</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>405.2609724030931</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>405.2609724030931</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>405.2609724030931</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>405.2609724030931</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2307.009759042411</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C8" t="n">
-        <v>1938.047242101999</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D8" t="n">
-        <v>1579.781543495249</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.993290897004</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>783.0073861073968</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="F10" t="n">
-        <v>178.407889936821</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="G10" t="n">
-        <v>178.407889936821</v>
+        <v>269.9555735993346</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.2978374347314</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.665555340272</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X13" t="n">
-        <v>1076.676004442255</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.3743239205529</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="C16" t="n">
-        <v>542.438140992646</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1104.958408242189</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1104.958408242189</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1104.958408242189</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>1104.958408242189</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229244</v>
+        <v>876.9688573441714</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7169704793943</v>
+        <v>656.1762782006413</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,22 +5527,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5694,31 +5694,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1004.352574466701</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>714.9354044297402</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317228</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5834,25 +5834,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>562.0930141766539</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9763747643182</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>264.063281181925</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>117.1733336840147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1211.314749843308</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U25" t="n">
-        <v>1211.314749843308</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V25" t="n">
-        <v>1211.314749843308</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.314749843308</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.314749843308</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>1211.314749843308</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
         <v>1528.62340110598</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>649.6418670412198</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>480.7056841133129</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>870.43444618475</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>649.6418670412198</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,25 +6694,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4347.338425602348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4178.402242674441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4028.285603262106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3880.372509679712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3880.372509679712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3712.197187999533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3561.779179547476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576118</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4749.779469576118</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4749.779469576118</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>4749.779469576118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4528.986890432588</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,16 +6940,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>3177.42741301205</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>3484.747546292012</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1044.311772267568</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>836.769640042142</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,16 +7159,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="U40" t="n">
-        <v>991.1425362135525</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="V40" t="n">
-        <v>736.4580480076656</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="W40" t="n">
-        <v>447.040877970705</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="X40" t="n">
-        <v>447.040877970705</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>857.3660635912139</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212476</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>410.1323227212476</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1323227212476</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1323227212476</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>241.9570010410683</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465859</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L45" t="n">
-        <v>2771.824048372323</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M45" t="n">
-        <v>3079.144181652285</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>3409.006809316318</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>4045.444533962832</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1259.037062672588</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1004.352574466701</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>714.9354044297403</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X46" t="n">
-        <v>486.9458535317229</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>73.53204524670008</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>96.03744927814705</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L36" t="n">
-        <v>19.14409596996961</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>360.5026862907243</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>94.21479027113693</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>103.0576765518766</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9827600886844</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.4144397532288</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.3938331833823</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>48.75693659211584</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>146.736888661886</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.78640795473342</v>
+        <v>52.3998233988051</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.5757848497503</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>60.81677696121598</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>8.821697689778361</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>20.24294448586573</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>112.8826719008585</v>
       </c>
       <c r="U40" t="n">
-        <v>5.08891645606019</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>5.621317882561584</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>104.8566210678471</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.75693659211589</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26337,13 +26337,13 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
@@ -26352,10 +26352,10 @@
         <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26450,7 +26450,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639998</v>
+        <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505451</v>
+        <v>273517.0698505446</v>
       </c>
       <c r="D6" t="n">
-        <v>273517.069850545</v>
+        <v>273517.0698505449</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749161</v>
+        <v>-144381.2986346381</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422589</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093872</v>
+        <v>204355.5186496656</v>
       </c>
       <c r="K6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="L6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="M6" t="n">
-        <v>246952.313868143</v>
+        <v>245977.7226084213</v>
       </c>
       <c r="N6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="O6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422586</v>
       </c>
       <c r="P6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422586</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.854940372282</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>27.5442465104943</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>137.6958738589649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>370.6037173601977</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>168.6245956761327</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>23.23667510894424</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>68.29414919978308</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>48.19472341080751</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>15.93318254099023</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>78.15058899504015</v>
+        <v>77.28404477295297</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187824</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36211,19 +36211,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>280.6254601782248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L36" t="n">
-        <v>268.4018009259939</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38110,7 +38110,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>642.8663885318325</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1858482.855787591</v>
+        <v>1863422.118636624</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>128.9001284632685</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>146.8714662984772</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>39.25266187003822</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>105.0839683962665</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>82.5995718321566</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>132.9342137328509</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>166.2252282882363</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7356466614543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>78.88684406884218</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274225</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9.283721801527788</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.5269768002182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.13312130516043</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800221</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>86.47365081503108</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>134.7941790912179</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>169.1477376595842</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>17.13387053928689</v>
+        <v>96.09843098023707</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>87.79869605699638</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>88.99177052521314</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>108.6648891575308</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>120.8530343211901</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>69.27142932050978</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.7438101404423</v>
+        <v>42.73966146813952</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>184.1451317832619</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2548.794074555114</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2330.159407527177</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2076.397622165268</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.334734821698</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1745.334734821698</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.334734821698</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1745.334734821698</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4473,19 +4473,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="U5" t="n">
-        <v>2382.509002921313</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="V5" t="n">
-        <v>2382.509002921313</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.509002921313</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D7" t="n">
-        <v>357.2197656505683</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>357.2197656505683</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>357.2197656505683</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2199653889007</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>530.8077940618376</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371763</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>411.9186004304258</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>438.9553738610022</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>438.9553738610022</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>438.9553738610022</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>269.9555735993346</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636254</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609671</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550802</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181196</v>
+        <v>720.4504516500519</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201023</v>
+        <v>720.4504516500519</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>720.4504516500519</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635876</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>656.1762782006413</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>656.1762782006413</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883055</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883055</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1104.958408242189</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1104.958408242189</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1104.958408242189</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1104.958408242189</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>876.9688573441714</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>656.1762782006413</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,22 +5527,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5694,31 +5694,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5752,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5778825909698</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,7 +6086,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1017.064856369034</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.064856369034</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
         <v>265.3924131404652</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>649.6418670412198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>480.7056841133129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1098.423997082767</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>870.43444618475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>649.6418670412198</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6724,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,28 +6928,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>355.2830904386603</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7195,13 +7195,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.7175987609742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>506.7814158330673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1078.158642734744</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1078.158642734744</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1078.158642734744</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1078.158642734744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1078.158642734744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>857.3660635912139</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.7516828383384</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169051</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>330.8254548799445</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>208.7516828383384</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.7516828383384</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>496.665036439558</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>268.6754855415407</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>170.5482583804095</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.0576765518766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.4144397532288</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.3938331833823</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>135.0739102433582</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>32.45264200740991</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271363</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>52.3998233988051</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>208.5757848497503</v>
+        <v>129.6112244088001</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>60.81677696121598</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>78.25505057341469</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>112.8826719008585</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>104.8566210678471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>149.313224031585</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.8408432116525</v>
+        <v>175.8449918839553</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26337,7 +26337,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
@@ -26346,16 +26346,16 @@
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="N2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="O2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639996</v>
+        <v>-316450.8093639995</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505446</v>
+        <v>273517.0698505453</v>
       </c>
       <c r="D6" t="n">
-        <v>273517.0698505449</v>
+        <v>273517.0698505453</v>
       </c>
       <c r="E6" t="n">
-        <v>-144381.2986346381</v>
+        <v>-143504.1665008879</v>
       </c>
       <c r="F6" t="n">
-        <v>380778.7378422589</v>
+        <v>381655.8699760078</v>
       </c>
       <c r="G6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="H6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="I6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.8699760079</v>
       </c>
       <c r="J6" t="n">
-        <v>204355.5186496656</v>
+        <v>205232.650783415</v>
       </c>
       <c r="K6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="L6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="M6" t="n">
-        <v>245977.7226084213</v>
+        <v>246854.854742171</v>
       </c>
       <c r="N6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="O6" t="n">
-        <v>380778.7378422586</v>
+        <v>381655.869976008</v>
       </c>
       <c r="P6" t="n">
-        <v>380778.7378422586</v>
+        <v>381655.8699760079</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>27.5442465104943</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047564</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>69.33174441270504</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>168.6245956761327</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>23.23667510894424</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>59.48442710080081</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.19472341080751</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>77.28404477295297</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.284463230715</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187824</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
